--- a/DateBase/orders/Dang Nguyen_2025-5-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-30.xlsx
@@ -607,6 +607,9 @@
       <c r="C21" t="str">
         <v>606_康乃馨橙光_orange_undefined_20stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -668,7 +671,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0302010101051015202050302010202011750</v>
+        <v>03020101010510152020503020102020117515</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-30.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -611,9 +611,485 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>4</v>
+      </c>
+      <c r="C22" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F22" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F23" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F24" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>606_康乃馨橙光_orange_undefined_20stems</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F26" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+      </c>
+      <c r="F27" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>5</v>
+      </c>
+      <c r="C29" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F29" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F30" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>101_绣球秋红_Hydrangea Vintage Red_Hydrangea L._1stem</v>
+      </c>
+      <c r="F31" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F32" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>552_蓝盆花紫色_Scabiosa caucasica purple_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>458_蓝盆花白色_Scabiosa caucasica white_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>6</v>
+      </c>
+      <c r="C37" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F38" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>329_柔丝_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="C45" t="str" xml:space="preserve">
+        <v xml:space="preserve">460_袋鼠爪黄_Kangaroo Paw
+red /green /orange / yellow_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>741_袋鼠爪红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>455_粉星花_tweedia pink_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>609_康乃馨小天使_angle_undefined_20stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2</v>
+      </c>
+      <c r="C53" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>177_国王日_Kings Day_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F58" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>13_酒红洋桔梗_Burgundy Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>3</v>
+      </c>
+      <c r="C60" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>246_多头蓝莓_Blueberry Spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F64" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>268_猩红泡泡_spray red_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F65" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>221_朱丽叶塔_Julieta_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>612_康乃馨古巴爱情_cuba love_undefined_20stems</v>
+      </c>
+      <c r="F67" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F68" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>4</v>
+      </c>
+      <c r="C69" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" t="str">
+        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+      </c>
+      <c r="F70" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>603_康乃馨粉钻_darkpink_undefined_20stems</v>
+      </c>
+      <c r="F71" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>602_康乃馨白_white_undefined_20stems</v>
+      </c>
+      <c r="F72" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>5</v>
+      </c>
+      <c r="C75" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F75" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>6</v>
+      </c>
+      <c r="C76" t="str">
+        <v>107_绣球单瓣浅粉_Hydrangea Light Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>100_绣球单瓣白_Hydrangea White S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F77" t="str">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L77"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -671,7 +1147,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03020101010510152020503020102020117515</v>
+        <v>0302010101051015202050302010202011751512610101015520201212161010101510155101510305101020201010107.520455105111.585104615105510102010301011</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-30.xlsx
@@ -1149,6 +1149,9 @@
       <c r="G2" t="str">
         <v>0302010101051015202050302010202011751512610101015520201212161010101510155101510305101020201010107.520455105111.585104615105510102010301011</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
